--- a/data/excel/users.xlsx
+++ b/data/excel/users.xlsx
@@ -28,7 +28,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>excelUser</t>
+    <t>validUser</t>
   </si>
 </sst>
 </file>
